--- a/tests/services/data/wes_data.xlsx
+++ b/tests/services/data/wes_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavel/code/cidc-schemas/template_examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavel/code/cidc-api-gae/tests/services/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFD973D-1928-7644-B8E2-2056376DAF3C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E4168E-96AD-7B45-8989-E8866294B0D6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14520" yWindow="1740" windowWidth="28800" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WES" sheetId="1" r:id="rId1"/>
@@ -298,7 +298,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="48">
   <si>
     <t>#t</t>
   </si>
@@ -439,6 +439,9 @@
   </si>
   <si>
     <t>/local/path/to/rgm.1.2.1.txt</t>
+  </si>
+  <si>
+    <t>test_trial</t>
   </si>
 </sst>
 </file>
@@ -857,7 +860,7 @@
   <dimension ref="A1:N211"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -887,8 +890,8 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1">
-        <v>10021</v>
+      <c r="C2" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
